--- a/12/lizaveta_zinovich.xlsx
+++ b/12/lizaveta_zinovich.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Traceability Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="Requirements" sheetId="2" r:id="rId2"/>
     <sheet name="Boundary values" sheetId="3" r:id="rId3"/>
     <sheet name="Test cases" sheetId="4" r:id="rId4"/>
-    <sheet name="15" sheetId="5" r:id="rId5"/>
+    <sheet name="Test scenarios" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -964,10 +964,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1041,6 +1041,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1048,22 +1055,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,7 +1100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,14 +1114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1117,8 +1123,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1132,36 +1161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1171,14 +1170,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,7 +1211,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,19 +1277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,25 +1289,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,19 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,91 +1379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,17 +1414,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,11 +1473,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1478,96 +1511,72 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1576,105 +1585,102 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1750,55 +1756,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2081,518 +2087,518 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="31"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="31"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="31" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="31" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="31" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2607,8 +2613,8 @@
   <sheetPr/>
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2618,674 +2624,674 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" ht="27.6" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" ht="27.6" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" ht="27.6" spans="1:2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="21"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" ht="27.6" spans="1:2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32" ht="27.6" spans="1:2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" ht="27.6" spans="1:2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="18" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="18" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="18" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="41" ht="27.6" spans="1:2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="42" ht="27.6" spans="1:2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="22" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="44" ht="27.6" spans="1:2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="45" ht="27.6" spans="1:2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="47" ht="27.6" spans="1:2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="17"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="18" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55" ht="27.6" spans="1:2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56" ht="27.6" spans="1:2">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="11"/>
+      <c r="B57" s="13"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="18" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="18" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="63" ht="27.6" spans="1:2">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="15" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="64" ht="27.6" spans="1:2">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="11"/>
+      <c r="B65" s="13"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="18" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="69" ht="27.6" spans="1:2">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="70" ht="27.6" spans="1:2">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B71" s="11"/>
+      <c r="B71" s="13"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="18" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="11"/>
+      <c r="B75" s="13"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="18" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="26" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="15"/>
+      <c r="B79" s="17"/>
     </row>
     <row r="80" ht="27.6" spans="1:2">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="15" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="81" ht="27.6" spans="1:2">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="27" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="82" ht="41.4" spans="1:2">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" ht="27.6" spans="1:2">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="15"/>
+      <c r="B84" s="17"/>
     </row>
     <row r="85" ht="41.4" spans="1:2">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B86" s="15"/>
+      <c r="B86" s="17"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="26"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3316,7 +3322,7 @@
   <sheetPr/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -3330,26 +3336,26 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
@@ -3408,12 +3414,12 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -3472,12 +3478,12 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -3536,12 +3542,12 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
@@ -3598,17 +3604,17 @@
       <c r="C21">
         <v>321</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
@@ -3670,12 +3676,12 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
@@ -3720,12 +3726,12 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
@@ -3805,25 +3811,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3834,16 +3840,16 @@
       <c r="B2" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>230</v>
       </c>
       <c r="G2" t="s">
@@ -3854,13 +3860,13 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>232</v>
       </c>
       <c r="C3" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>228</v>
       </c>
       <c r="E3" t="s">
@@ -3877,19 +3883,19 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>239</v>
       </c>
       <c r="G4" t="s">
@@ -3900,19 +3906,19 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G5" t="s">
@@ -3923,19 +3929,19 @@
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>247</v>
       </c>
       <c r="G6" t="s">
@@ -3946,13 +3952,13 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C7" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>228</v>
       </c>
       <c r="E7" t="s">
@@ -3969,19 +3975,19 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>255</v>
       </c>
       <c r="G8" t="s">
@@ -3992,19 +3998,19 @@
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>259</v>
       </c>
       <c r="G9" t="s">
@@ -4012,36 +4018,36 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4054,14 +4060,15 @@
   <sheetPr/>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="81.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="10.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="70.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4074,218 +4081,218 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="5" ht="32" customHeight="1" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4298,13 +4305,13 @@
       <c r="A40" t="s">
         <v>266</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>295</v>
       </c>
       <c r="C40" t="s">
         <v>296</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="9" t="s">
         <v>297</v>
       </c>
     </row>

--- a/12/lizaveta_zinovich.xlsx
+++ b/12/lizaveta_zinovich.xlsx
@@ -1191,12 +1191,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,13 +1256,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1275,7 +1268,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,61 +1335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1390,15 +1384,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1412,7 +1405,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1451,13 +1444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,49 +1468,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,61 +1510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,13 +1528,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,19 +1588,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,16 +1648,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1676,6 +1678,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1699,31 +1716,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1756,52 +1749,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1810,98 +1806,95 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1975,23 +1968,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2003,13 +1990,13 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2334,7 +2321,7 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2345,621 +2332,621 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="35"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37" t="s">
+      <c r="B34" s="35"/>
+      <c r="C34" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37" t="s">
+      <c r="B35" s="35"/>
+      <c r="C35" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37" t="s">
+      <c r="B36" s="35"/>
+      <c r="C36" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37" t="s">
+      <c r="B37" s="35"/>
+      <c r="C37" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37" t="s">
+      <c r="B38" s="35"/>
+      <c r="C38" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37" t="s">
+      <c r="B39" s="35"/>
+      <c r="C39" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37" t="s">
+      <c r="B40" s="35"/>
+      <c r="C40" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37" t="s">
+      <c r="B41" s="35"/>
+      <c r="C41" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37" t="s">
+      <c r="B43" s="35"/>
+      <c r="C43" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37" t="s">
+      <c r="B44" s="35"/>
+      <c r="C44" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37" t="s">
+      <c r="B45" s="35"/>
+      <c r="C45" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37" t="s">
+      <c r="B46" s="35"/>
+      <c r="C46" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37" t="s">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37" t="s">
+      <c r="B48" s="35"/>
+      <c r="C48" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37" t="s">
+      <c r="B51" s="35"/>
+      <c r="C51" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37" t="s">
+      <c r="B52" s="35"/>
+      <c r="C52" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37" t="s">
+      <c r="B53" s="35"/>
+      <c r="C53" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37" t="s">
+      <c r="B54" s="35"/>
+      <c r="C54" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37" t="s">
+      <c r="B55" s="35"/>
+      <c r="C55" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37" t="s">
+      <c r="B57" s="35"/>
+      <c r="C57" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37" t="s">
+      <c r="B58" s="35"/>
+      <c r="C58" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37" t="s">
+      <c r="B59" s="35"/>
+      <c r="C59" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37" t="s">
+      <c r="B60" s="35"/>
+      <c r="C60" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37" t="s">
+      <c r="B67" s="35"/>
+      <c r="C67" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37" t="s">
+      <c r="B68" s="35"/>
+      <c r="C68" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C71" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2975,15 +2962,15 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="10.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="70.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.22222222222222" customWidth="1"/>
+    <col min="4" max="4" width="8.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3030,304 +3017,304 @@
       <c r="A6" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>2</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>3</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>4</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>5</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>6</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>7</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>8</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>9</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="29">
+      <c r="A16" s="28">
         <v>10</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" ht="28.8" spans="1:3">
-      <c r="A17" s="29">
+      <c r="A17" s="28">
         <v>11</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="29">
+      <c r="A18" s="28">
         <v>12</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="29">
+      <c r="A19" s="28">
         <v>13</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>14</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="29">
+      <c r="A21" s="28">
         <v>15</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <v>16</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="27"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>17</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="27"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="29">
+      <c r="A24" s="28">
         <v>18</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="27"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="29">
+      <c r="A25" s="28">
         <v>19</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="29">
+      <c r="A26" s="28">
         <v>20</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="29">
+      <c r="A27" s="28">
         <v>21</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="29">
+      <c r="A28" s="28">
         <v>22</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="29">
+      <c r="A29" s="28">
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="29">
+      <c r="A30" s="28">
         <v>24</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="27"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="29">
+      <c r="A31" s="28">
         <v>25</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="27"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="29">
+      <c r="A32" s="28">
         <v>26</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="27"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="29">
+      <c r="A33" s="28">
         <v>27</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="27"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="29">
+      <c r="A34" s="28">
         <v>28</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="30"/>
+      <c r="C34" s="27"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="29">
+      <c r="A35" s="28">
         <v>29</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="30"/>
+      <c r="C35" s="27"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="29">
+      <c r="A36" s="28">
         <v>30</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="30"/>
+      <c r="C36" s="27"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="29">
+      <c r="A37" s="28">
         <v>31</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="30"/>
+      <c r="C37" s="27"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="25"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B40" s="25" t="s">
@@ -3335,15 +3322,15 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="25" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="31" t="s">
         <v>129</v>
       </c>
       <c r="B42" s="25" t="s">
@@ -3351,15 +3338,15 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="31" t="s">
         <v>133</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -3367,7 +3354,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>135</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -3375,7 +3362,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B46" s="25" t="s">
@@ -3383,15 +3370,15 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B48" s="25" t="s">
@@ -3399,15 +3386,15 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>143</v>
       </c>
       <c r="B50" s="25" t="s">
@@ -3415,15 +3402,15 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="25" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="28" t="s">
         <v>147</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -3431,15 +3418,15 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B54" s="25" t="s">
@@ -3447,7 +3434,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B55" s="25" t="s">
@@ -3455,7 +3442,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B56" s="25" t="s">
@@ -3463,7 +3450,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B57" s="25" t="s">
@@ -3471,7 +3458,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B58" s="25" t="s">
@@ -3479,15 +3466,15 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B60" s="25" t="s">
@@ -3495,15 +3482,15 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="25" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B62" s="25" t="s">
@@ -3511,15 +3498,15 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="32" t="s">
         <v>163</v>
       </c>
       <c r="B64" s="25" t="s">
@@ -3527,7 +3514,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B65" s="25" t="s">
@@ -3535,7 +3522,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B66" s="25" t="s">
@@ -3543,15 +3530,15 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="28" t="s">
         <v>168</v>
       </c>
       <c r="B68" s="25" t="s">
@@ -3559,15 +3546,15 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="28" t="s">
         <v>171</v>
       </c>
       <c r="B70" s="25" t="s">
@@ -3575,15 +3562,15 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="28" t="s">
         <v>174</v>
       </c>
       <c r="B72" s="25" t="s">
@@ -3591,15 +3578,15 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="28" t="s">
         <v>177</v>
       </c>
       <c r="B74" s="25" t="s">
@@ -3607,15 +3594,15 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="25" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="28" t="s">
         <v>180</v>
       </c>
       <c r="B76" s="25" t="s">
@@ -3623,15 +3610,15 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="28" t="s">
         <v>183</v>
       </c>
       <c r="B78" s="25" t="s">
@@ -3639,15 +3626,15 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="28" t="s">
         <v>185</v>
       </c>
       <c r="B80" s="25" t="s">
@@ -3655,15 +3642,15 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="28" t="s">
         <v>188</v>
       </c>
       <c r="B82" s="25" t="s">
@@ -3671,15 +3658,15 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="28" t="s">
         <v>190</v>
       </c>
       <c r="B84" s="25" t="s">
@@ -3687,15 +3674,15 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="25" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="28" t="s">
         <v>193</v>
       </c>
       <c r="B86" s="25" t="s">
@@ -3703,7 +3690,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="28" t="s">
         <v>194</v>
       </c>
       <c r="B87" s="25" t="s">
@@ -3711,7 +3698,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="28" t="s">
         <v>195</v>
       </c>
       <c r="B88" s="25" t="s">
@@ -3719,7 +3706,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="28" t="s">
         <v>197</v>
       </c>
       <c r="B89" s="25" t="s">
@@ -3727,7 +3714,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="28" t="s">
         <v>199</v>
       </c>
       <c r="B90" s="25" t="s">
@@ -3735,7 +3722,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="28" t="s">
         <v>201</v>
       </c>
       <c r="B91" s="25" t="s">
@@ -3743,7 +3730,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="28" t="s">
         <v>202</v>
       </c>
       <c r="B92" s="25" t="s">
@@ -3751,7 +3738,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="28" t="s">
         <v>203</v>
       </c>
       <c r="B93" s="25" t="s">
@@ -3759,7 +3746,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="28" t="s">
         <v>204</v>
       </c>
       <c r="B94" s="25" t="s">
@@ -3767,7 +3754,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="28" t="s">
         <v>205</v>
       </c>
       <c r="B95" s="25" t="s">
@@ -3775,7 +3762,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="28" t="s">
         <v>206</v>
       </c>
       <c r="B96" s="25" t="s">
@@ -3783,7 +3770,7 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="28" t="s">
         <v>207</v>
       </c>
       <c r="B97" s="25" t="s">
@@ -3791,7 +3778,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="28" t="s">
         <v>209</v>
       </c>
       <c r="B98" s="25" t="s">
@@ -3799,24 +3786,23 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="25" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="25" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" s="2"/>
-      <c r="C113"/>
       <c r="D113" s="2"/>
     </row>
   </sheetData>
@@ -3831,7 +3817,7 @@
   <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4540,7 +4526,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -5013,7 +4999,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
